--- a/biology/Histoire de la zoologie et de la botanique/Éric_Buffetaut/Éric_Buffetaut.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Éric_Buffetaut/Éric_Buffetaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Buffetaut</t>
+          <t>Éric_Buffetaut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Buffetaut (né à Porte-Joie en Normandie le 19 novembre 1950[1]) est un paléontologue français, chercheur au CNRS depuis 1976. Docteur ès sciences et directeur de recherche au CNRS, spécialiste des archosaures fossiles et principalement des dinosaures et des ptérosaures, il a publié un grand nombre d'ouvrages (spécialisés ou non) sur les dinosaures et la paléontologie[2],[3]. Il est un des paléontologues majeurs à soutenir la thèse de la chute d'une météorite comme principale cause de la crise Crétacé/Tertiaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Buffetaut (né à Porte-Joie en Normandie le 19 novembre 1950) est un paléontologue français, chercheur au CNRS depuis 1976. Docteur ès sciences et directeur de recherche au CNRS, spécialiste des archosaures fossiles et principalement des dinosaures et des ptérosaures, il a publié un grand nombre d'ouvrages (spécialisés ou non) sur les dinosaures et la paléontologie,. Il est un des paléontologues majeurs à soutenir la thèse de la chute d'une météorite comme principale cause de la crise Crétacé/Tertiaire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Buffetaut</t>
+          <t>Éric_Buffetaut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'âge d'environ huit ans, il est impressionné par les dioramas, tranchant avec les présentations zoologiques classiques, lors de sa visite du Musée du Duc d'Orléans[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'âge d'environ huit ans, il est impressionné par les dioramas, tranchant avec les présentations zoologiques classiques, lors de sa visite du Musée du Duc d'Orléans.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Buffetaut</t>
+          <t>Éric_Buffetaut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Direction de thèses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Le Loeuff soutient à l'université Paris 6 en 1992 une thèse de doctorat appelée Les vertébrés continentaux du Crétacé supérieur d'Europe : paléoécologie, biostratigraphie et paléogéographie, sous la direction d'Éric Buffetaut[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Le Loeuff soutient à l'université Paris 6 en 1992 une thèse de doctorat appelée Les vertébrés continentaux du Crétacé supérieur d'Europe : paléoécologie, biostratigraphie et paléogéographie, sous la direction d'Éric Buffetaut.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Buffetaut</t>
+          <t>Éric_Buffetaut</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a nommé directeur de recherche au CNRS et il parcourt la planète à la recherche d'os, d'empreintes et d’œufs de dinosaures : en hiver, dans les collines boisées de l'Isan en Thaïlande ou en Tunisie ; en été, dans les gorges et vallées du Sud de la France où il a créé le musée des dinosaures d'Espéraza (le dinosauria) dans l'Aude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a nommé directeur de recherche au CNRS et il parcourt la planète à la recherche d'os, d'empreintes et d’œufs de dinosaures : en hiver, dans les collines boisées de l'Isan en Thaïlande ou en Tunisie ; en été, dans les gorges et vallées du Sud de la France où il a créé le musée des dinosaures d'Espéraza (le dinosauria) dans l'Aude.
 Il a décrit les espèces de dinosaures suivantes :
 Archaeodontosaurus descouensi
 Isanosaurus attavipachi
@@ -587,7 +605,7 @@
 Siamotyrannus isanensis
 Tarascosaurus salluvicus
 Variraptor mechinorum
-Buffetaut[7] démontre en 1982 que Dakosaurus et Aggiosaurus sont en fait des Metriorhynchidae.
+Buffetaut démontre en 1982 que Dakosaurus et Aggiosaurus sont en fait des Metriorhynchidae.
 </t>
         </is>
       </c>
